--- a/DATA-cop-standards-and-journal-levels.xlsx
+++ b/DATA-cop-standards-and-journal-levels.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\papers\active\openness-in-strategy-journals\data-openness-in-strategy-journals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\papers\active\openness-in-strategy-journals\strategy-publication-policies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CB3808-147E-4F87-9228-E08F5A9BBA09}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAD9EC4-1C3B-4DD4-A1B1-20D3BCF9C8A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ranks" sheetId="2" r:id="rId1"/>
-    <sheet name="standards" sheetId="1" r:id="rId2"/>
+    <sheet name="standards" sheetId="1" r:id="rId1"/>
+    <sheet name="ranks" sheetId="2" r:id="rId2"/>
     <sheet name="evidence" sheetId="7" r:id="rId3"/>
     <sheet name="standards-transposed" sheetId="4" r:id="rId4"/>
     <sheet name="quant-only" sheetId="5" r:id="rId5"/>
@@ -22,7 +22,7 @@
     <sheet name="README" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ranks!$A$1:$I$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ranks!$A$1:$I$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="101">
   <si>
     <t> </t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>Journal discourages submission of replication studies, or says nothing.</t>
+  </si>
+  <si>
+    <t>Data checklist required at time of submission, which would appear to be Level 1 implementation. But Level 1 requires the answers to the form questions be sent to reviewers, revised alongside the paper, and published alongside the paper. The data checklist appears to only be sent to reviewers and is not made public, so I assign this Level 0.</t>
   </si>
 </sst>
 </file>
@@ -2098,6 +2101,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B2:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="31.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" style="3"/>
+    <col min="2" max="16384" width="31.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="3" customFormat="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
@@ -2105,7 +2281,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.140625" defaultRowHeight="15"/>
@@ -2584,328 +2760,171 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B2:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="31.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="31.85546875" style="3"/>
-    <col min="2" max="16384" width="31.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1">
+    <row r="1" spans="1:23" s="7" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="16.5">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="3"/>
+      <c r="E6" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="D10" s="13"/>
+    <row r="9" spans="1:23">
+      <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4">
+        <v>43491</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="E10" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
